--- a/TestCases.xlsx
+++ b/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9044524-A123-4105-A2B0-6E945EEF6D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B9D458-9D7D-4562-88ED-D2C8A9645A59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="64">
   <si>
     <t>Test Case</t>
   </si>
@@ -60,12 +60,6 @@
     <t>Click Submit</t>
   </si>
   <si>
-    <t>Enter Username</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
     <t>Navigate to orange hrm</t>
   </si>
   <si>
@@ -76,6 +70,153 @@
   </si>
   <si>
     <t>Login with Invalid Credentials</t>
+  </si>
+  <si>
+    <t>Enter Valid Username</t>
+  </si>
+  <si>
+    <t>Enter Valid Password</t>
+  </si>
+  <si>
+    <t>Enter Invalid Username</t>
+  </si>
+  <si>
+    <t>Enter Invalid Password</t>
+  </si>
+  <si>
+    <t>Add Employee Test</t>
+  </si>
+  <si>
+    <t>Login to OrangeHrm</t>
+  </si>
+  <si>
+    <t>Navigate to the PIM Module</t>
+  </si>
+  <si>
+    <t>Click Add Employee</t>
+  </si>
+  <si>
+    <t>Enter Employee Details</t>
+  </si>
+  <si>
+    <t>Click Save</t>
+  </si>
+  <si>
+    <t>Verfiy that the employee is added successfully</t>
+  </si>
+  <si>
+    <t>The Employee is Successfully added and visible in the employee list.</t>
+  </si>
+  <si>
+    <t>The user is successfully logged in and redirected to the dashboard</t>
+  </si>
+  <si>
+    <t>The login failed and there is an Error Message</t>
+  </si>
+  <si>
+    <t>Search Employee Test</t>
+  </si>
+  <si>
+    <t>Login in to OrangeHRM</t>
+  </si>
+  <si>
+    <t>Navigate to the PIM module</t>
+  </si>
+  <si>
+    <t>Enter the employee name in the search box</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Verify that the employee appears in the search result</t>
+  </si>
+  <si>
+    <t>The employee is succesfully found and listed in the search results</t>
+  </si>
+  <si>
+    <t>Edit Employee Details</t>
+  </si>
+  <si>
+    <t>Login to OrangeHRM</t>
+  </si>
+  <si>
+    <t>Search for the employee by name</t>
+  </si>
+  <si>
+    <t>Click on the employee name to view details</t>
+  </si>
+  <si>
+    <t>Click Edit</t>
+  </si>
+  <si>
+    <t>Change the employee's details (e.g., Job title)</t>
+  </si>
+  <si>
+    <t>Verfiy that the changes are saved successfully</t>
+  </si>
+  <si>
+    <t>The employee's details are updated and saved successfully</t>
+  </si>
+  <si>
+    <t>Delete Employee</t>
+  </si>
+  <si>
+    <t>Select the employee from the search</t>
+  </si>
+  <si>
+    <t>Click Delete</t>
+  </si>
+  <si>
+    <t>Confirm the deletion</t>
+  </si>
+  <si>
+    <t>Verify that the emploee is no longer listed</t>
+  </si>
+  <si>
+    <t>The employee is successfully deleted and no longer appears in the employee list</t>
+  </si>
+  <si>
+    <t>Verfiy Required Fields for Adding Employee</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Verfiy that appropriate error messages are displayed when required fields are left blank while adding a new employee.</t>
+  </si>
+  <si>
+    <t>Navigate to the PIM module.</t>
+  </si>
+  <si>
+    <t>Login to OrangeHrm.</t>
+  </si>
+  <si>
+    <t>Leave required fields(e.g., first name) blank</t>
+  </si>
+  <si>
+    <t>Click Save.</t>
+  </si>
+  <si>
+    <t>Error messages indicating that the required fields are mandatory are displayed.</t>
+  </si>
+  <si>
+    <t>Verify that the users can login with valid credentials.</t>
+  </si>
+  <si>
+    <t>Verify that a new employee can be added successfully.</t>
+  </si>
+  <si>
+    <t>Verify that an employee can be searched by their name.</t>
+  </si>
+  <si>
+    <t>Verify that an employee details can be edited successfully.</t>
+  </si>
+  <si>
+    <t>Verify that an employee can be deleted successfully.</t>
+  </si>
+  <si>
+    <t>Verify that an appropriate error message is displayed when logging in with invalid credentials.</t>
   </si>
 </sst>
 </file>
@@ -121,7 +262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -144,17 +285,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,148 +627,821 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1">
+        <v>4</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3">
+      <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="1">
         <v>2</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3">
+      <c r="E12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="1">
         <v>4</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3">
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="1">
         <v>5</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="F14" s="1"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="1">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="1">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="1">
+        <v>6</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>4</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F24" s="1"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="1">
+        <v>4</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="1">
+        <v>5</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="1"/>
+      <c r="G29" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="1">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="1">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="1">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="1">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="1">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="1">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="1">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F39" s="1"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="1">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="1">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="1"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="1">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="1">
+        <v>6</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F43" s="1"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="1">
+        <v>7</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F44" s="1"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>7</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="1">
+        <v>1</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="1"/>
+      <c r="G46" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="1">
+        <v>2</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="1"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="1">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="1"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="1"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="1">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+  <mergeCells count="15">
+    <mergeCell ref="G29:G36"/>
+    <mergeCell ref="G38:G44"/>
+    <mergeCell ref="G46:G50"/>
+    <mergeCell ref="C46:C50"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C38:C44"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="G4:G8"/>
+    <mergeCell ref="G10:G14"/>
+    <mergeCell ref="G16:G21"/>
+    <mergeCell ref="G23:G27"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="C23:C27"/>
+    <mergeCell ref="C10:C14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
